--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>10-12</t>
+    <t>9-14</t>
   </si>
   <si>
     <t>C</t>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>9-14</t>
+    <t>10-12</t>
   </si>
   <si>
     <t>C</t>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>10-12</t>
+    <t>9-13</t>
   </si>
   <si>
     <t>C</t>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -445,9 +445,6 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -459,9 +456,6 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
-      </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
@@ -473,9 +467,6 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
-      </c>
       <c r="B4" t="s">
         <v>5</v>
       </c>
@@ -487,9 +478,6 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
-      </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
@@ -501,9 +489,6 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
-      </c>
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -515,9 +500,6 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
-      </c>
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -529,9 +511,6 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
       <c r="B8" t="s">
         <v>5</v>
       </c>
@@ -543,9 +522,6 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
       <c r="B9" t="s">
         <v>5</v>
       </c>
@@ -557,9 +533,6 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
       <c r="B10" t="s">
         <v>5</v>
       </c>
@@ -571,9 +544,6 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -585,9 +555,6 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
@@ -599,9 +566,6 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
       <c r="B13" t="s">
         <v>5</v>
       </c>
@@ -613,9 +577,6 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
       <c r="B14" t="s">
         <v>5</v>
       </c>
@@ -627,9 +588,6 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
       <c r="B15" t="s">
         <v>5</v>
       </c>
@@ -641,9 +599,6 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
       <c r="B16" t="s">
         <v>5</v>
       </c>
@@ -655,9 +610,6 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17">
-        <v>16</v>
-      </c>
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -669,9 +621,6 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
-        <v>17</v>
-      </c>
       <c r="B18" t="s">
         <v>5</v>
       </c>
@@ -683,9 +632,6 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19">
-        <v>18</v>
-      </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
@@ -697,9 +643,6 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20">
-        <v>19</v>
-      </c>
       <c r="B20" t="s">
         <v>5</v>
       </c>
@@ -711,9 +654,6 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21">
-        <v>20</v>
-      </c>
       <c r="B21" t="s">
         <v>5</v>
       </c>
@@ -725,9 +665,6 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22">
-        <v>21</v>
-      </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
@@ -739,9 +676,6 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23">
-        <v>22</v>
-      </c>
       <c r="B23" t="s">
         <v>5</v>
       </c>
@@ -753,9 +687,6 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24">
-        <v>23</v>
-      </c>
       <c r="B24" t="s">
         <v>5</v>
       </c>
@@ -767,9 +698,6 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25">
-        <v>24</v>
-      </c>
       <c r="B25" t="s">
         <v>5</v>
       </c>
@@ -781,9 +709,6 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26">
-        <v>25</v>
-      </c>
       <c r="B26" t="s">
         <v>5</v>
       </c>
@@ -795,9 +720,6 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27">
-        <v>26</v>
-      </c>
       <c r="B27" t="s">
         <v>5</v>
       </c>
@@ -809,9 +731,6 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28">
-        <v>27</v>
-      </c>
       <c r="B28" t="s">
         <v>5</v>
       </c>
@@ -823,9 +742,6 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29">
-        <v>28</v>
-      </c>
       <c r="B29" t="s">
         <v>5</v>
       </c>
@@ -837,9 +753,6 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30">
-        <v>29</v>
-      </c>
       <c r="B30" t="s">
         <v>5</v>
       </c>
@@ -851,9 +764,6 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31">
-        <v>30</v>
-      </c>
       <c r="B31" t="s">
         <v>5</v>
       </c>
@@ -865,9 +775,6 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32">
-        <v>31</v>
-      </c>
       <c r="B32" t="s">
         <v>5</v>
       </c>
@@ -879,9 +786,6 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33">
-        <v>32</v>
-      </c>
       <c r="B33" t="s">
         <v>5</v>
       </c>
@@ -893,9 +797,6 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34">
-        <v>33</v>
-      </c>
       <c r="B34" t="s">
         <v>5</v>
       </c>
@@ -907,9 +808,6 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35">
-        <v>34</v>
-      </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
@@ -921,9 +819,6 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36">
-        <v>35</v>
-      </c>
       <c r="B36" t="s">
         <v>5</v>
       </c>
@@ -935,9 +830,6 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37">
-        <v>36</v>
-      </c>
       <c r="B37" t="s">
         <v>5</v>
       </c>
@@ -949,9 +841,6 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38">
-        <v>37</v>
-      </c>
       <c r="B38" t="s">
         <v>5</v>
       </c>
@@ -963,9 +852,6 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39">
-        <v>38</v>
-      </c>
       <c r="B39" t="s">
         <v>5</v>
       </c>
@@ -977,9 +863,6 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40">
-        <v>39</v>
-      </c>
       <c r="B40" t="s">
         <v>5</v>
       </c>
@@ -991,9 +874,6 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41">
-        <v>40</v>
-      </c>
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1005,9 +885,6 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42">
-        <v>41</v>
-      </c>
       <c r="B42" t="s">
         <v>5</v>
       </c>
@@ -1019,9 +896,6 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43">
-        <v>42</v>
-      </c>
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -1033,9 +907,6 @@
       </c>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44">
-        <v>43</v>
-      </c>
       <c r="B44" t="s">
         <v>5</v>
       </c>
@@ -1047,9 +918,6 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45">
-        <v>44</v>
-      </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
@@ -1061,9 +929,6 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46">
-        <v>45</v>
-      </c>
       <c r="B46" t="s">
         <v>5</v>
       </c>
@@ -1075,9 +940,6 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47">
-        <v>46</v>
-      </c>
       <c r="B47" t="s">
         <v>5</v>
       </c>
@@ -1089,9 +951,6 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48">
-        <v>47</v>
-      </c>
       <c r="B48" t="s">
         <v>5</v>
       </c>
@@ -1103,9 +962,6 @@
       </c>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49">
-        <v>48</v>
-      </c>
       <c r="B49" t="s">
         <v>5</v>
       </c>
@@ -1117,9 +973,6 @@
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50">
-        <v>49</v>
-      </c>
       <c r="B50" t="s">
         <v>5</v>
       </c>
@@ -1131,9 +984,6 @@
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51">
-        <v>50</v>
-      </c>
       <c r="B51" t="s">
         <v>5</v>
       </c>
@@ -1145,9 +995,6 @@
       </c>
     </row>
     <row r="52" spans="1:5">
-      <c r="A52">
-        <v>51</v>
-      </c>
       <c r="B52" t="s">
         <v>5</v>
       </c>
@@ -1159,9 +1006,6 @@
       </c>
     </row>
     <row r="53" spans="1:5">
-      <c r="A53">
-        <v>52</v>
-      </c>
       <c r="B53" t="s">
         <v>5</v>
       </c>
@@ -1173,9 +1017,6 @@
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="A54">
-        <v>53</v>
-      </c>
       <c r="B54" t="s">
         <v>5</v>
       </c>
@@ -1187,9 +1028,6 @@
       </c>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55">
-        <v>54</v>
-      </c>
       <c r="B55" t="s">
         <v>5</v>
       </c>
@@ -1201,9 +1039,6 @@
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56">
-        <v>55</v>
-      </c>
       <c r="B56" t="s">
         <v>5</v>
       </c>
@@ -1215,9 +1050,6 @@
       </c>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57">
-        <v>56</v>
-      </c>
       <c r="B57" t="s">
         <v>5</v>
       </c>
@@ -1229,9 +1061,6 @@
       </c>
     </row>
     <row r="58" spans="1:5">
-      <c r="A58">
-        <v>57</v>
-      </c>
       <c r="B58" t="s">
         <v>5</v>
       </c>
@@ -1243,9 +1072,6 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59">
-        <v>58</v>
-      </c>
       <c r="B59" t="s">
         <v>5</v>
       </c>
@@ -1257,9 +1083,6 @@
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60">
-        <v>59</v>
-      </c>
       <c r="B60" t="s">
         <v>5</v>
       </c>
@@ -1271,9 +1094,6 @@
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61">
-        <v>60</v>
-      </c>
       <c r="B61" t="s">
         <v>5</v>
       </c>
@@ -1285,9 +1105,6 @@
       </c>
     </row>
     <row r="62" spans="1:5">
-      <c r="A62">
-        <v>61</v>
-      </c>
       <c r="B62" t="s">
         <v>5</v>
       </c>
@@ -1299,9 +1116,6 @@
       </c>
     </row>
     <row r="63" spans="1:5">
-      <c r="A63">
-        <v>62</v>
-      </c>
       <c r="B63" t="s">
         <v>5</v>
       </c>
@@ -1313,9 +1127,6 @@
       </c>
     </row>
     <row r="64" spans="1:5">
-      <c r="A64">
-        <v>63</v>
-      </c>
       <c r="B64" t="s">
         <v>5</v>
       </c>
@@ -1327,9 +1138,6 @@
       </c>
     </row>
     <row r="65" spans="1:5">
-      <c r="A65">
-        <v>64</v>
-      </c>
       <c r="B65" t="s">
         <v>5</v>
       </c>
@@ -1341,9 +1149,6 @@
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66">
-        <v>65</v>
-      </c>
       <c r="B66" t="s">
         <v>5</v>
       </c>
@@ -1355,9 +1160,6 @@
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67">
-        <v>66</v>
-      </c>
       <c r="B67" t="s">
         <v>5</v>
       </c>
@@ -1369,9 +1171,6 @@
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68">
-        <v>67</v>
-      </c>
       <c r="B68" t="s">
         <v>5</v>
       </c>
@@ -1383,9 +1182,6 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69">
-        <v>68</v>
-      </c>
       <c r="B69" t="s">
         <v>5</v>
       </c>
@@ -1397,9 +1193,6 @@
       </c>
     </row>
     <row r="70" spans="1:5">
-      <c r="A70">
-        <v>69</v>
-      </c>
       <c r="B70" t="s">
         <v>5</v>
       </c>
@@ -1411,9 +1204,6 @@
       </c>
     </row>
     <row r="71" spans="1:5">
-      <c r="A71">
-        <v>70</v>
-      </c>
       <c r="B71" t="s">
         <v>5</v>
       </c>
@@ -1425,9 +1215,6 @@
       </c>
     </row>
     <row r="72" spans="1:5">
-      <c r="A72">
-        <v>71</v>
-      </c>
       <c r="B72" t="s">
         <v>5</v>
       </c>
@@ -1439,9 +1226,6 @@
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73">
-        <v>72</v>
-      </c>
       <c r="B73" t="s">
         <v>5</v>
       </c>
@@ -1453,9 +1237,6 @@
       </c>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74">
-        <v>73</v>
-      </c>
       <c r="B74" t="s">
         <v>5</v>
       </c>
@@ -1467,9 +1248,6 @@
       </c>
     </row>
     <row r="75" spans="1:5">
-      <c r="A75">
-        <v>74</v>
-      </c>
       <c r="B75" t="s">
         <v>5</v>
       </c>
@@ -1481,9 +1259,6 @@
       </c>
     </row>
     <row r="76" spans="1:5">
-      <c r="A76">
-        <v>75</v>
-      </c>
       <c r="B76" t="s">
         <v>5</v>
       </c>
@@ -1495,9 +1270,6 @@
       </c>
     </row>
     <row r="77" spans="1:5">
-      <c r="A77">
-        <v>76</v>
-      </c>
       <c r="B77" t="s">
         <v>5</v>
       </c>
@@ -1509,9 +1281,6 @@
       </c>
     </row>
     <row r="78" spans="1:5">
-      <c r="A78">
-        <v>77</v>
-      </c>
       <c r="B78" t="s">
         <v>5</v>
       </c>
@@ -1523,9 +1292,6 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79">
-        <v>78</v>
-      </c>
       <c r="B79" t="s">
         <v>5</v>
       </c>
@@ -1537,9 +1303,6 @@
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80">
-        <v>79</v>
-      </c>
       <c r="B80" t="s">
         <v>5</v>
       </c>
@@ -1551,9 +1314,6 @@
       </c>
     </row>
     <row r="81" spans="1:5">
-      <c r="A81">
-        <v>80</v>
-      </c>
       <c r="B81" t="s">
         <v>5</v>
       </c>
@@ -1565,9 +1325,6 @@
       </c>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82">
-        <v>81</v>
-      </c>
       <c r="B82" t="s">
         <v>5</v>
       </c>
@@ -1579,9 +1336,6 @@
       </c>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83">
-        <v>82</v>
-      </c>
       <c r="B83" t="s">
         <v>5</v>
       </c>
@@ -1593,9 +1347,6 @@
       </c>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84">
-        <v>83</v>
-      </c>
       <c r="B84" t="s">
         <v>5</v>
       </c>
@@ -1607,9 +1358,6 @@
       </c>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85">
-        <v>84</v>
-      </c>
       <c r="B85" t="s">
         <v>5</v>
       </c>
@@ -1621,9 +1369,6 @@
       </c>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86">
-        <v>85</v>
-      </c>
       <c r="B86" t="s">
         <v>5</v>
       </c>
@@ -1635,9 +1380,6 @@
       </c>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87">
-        <v>86</v>
-      </c>
       <c r="B87" t="s">
         <v>5</v>
       </c>
@@ -1649,9 +1391,6 @@
       </c>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88">
-        <v>87</v>
-      </c>
       <c r="B88" t="s">
         <v>5</v>
       </c>
@@ -1663,9 +1402,6 @@
       </c>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89">
-        <v>88</v>
-      </c>
       <c r="B89" t="s">
         <v>5</v>
       </c>
@@ -1677,9 +1413,6 @@
       </c>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90">
-        <v>89</v>
-      </c>
       <c r="B90" t="s">
         <v>5</v>
       </c>
@@ -1691,9 +1424,6 @@
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91">
-        <v>90</v>
-      </c>
       <c r="B91" t="s">
         <v>5</v>
       </c>
@@ -1705,9 +1435,6 @@
       </c>
     </row>
     <row r="92" spans="1:5">
-      <c r="A92">
-        <v>91</v>
-      </c>
       <c r="B92" t="s">
         <v>5</v>
       </c>
@@ -1719,9 +1446,6 @@
       </c>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93">
-        <v>92</v>
-      </c>
       <c r="B93" t="s">
         <v>5</v>
       </c>
@@ -1733,9 +1457,6 @@
       </c>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94">
-        <v>93</v>
-      </c>
       <c r="B94" t="s">
         <v>5</v>
       </c>
@@ -1747,9 +1468,6 @@
       </c>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95">
-        <v>94</v>
-      </c>
       <c r="B95" t="s">
         <v>5</v>
       </c>
@@ -1761,9 +1479,6 @@
       </c>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96">
-        <v>95</v>
-      </c>
       <c r="B96" t="s">
         <v>5</v>
       </c>
@@ -1775,9 +1490,6 @@
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97">
-        <v>96</v>
-      </c>
       <c r="B97" t="s">
         <v>5</v>
       </c>
@@ -1789,9 +1501,6 @@
       </c>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98">
-        <v>97</v>
-      </c>
       <c r="B98" t="s">
         <v>5</v>
       </c>
@@ -1803,9 +1512,6 @@
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99">
-        <v>98</v>
-      </c>
       <c r="B99" t="s">
         <v>5</v>
       </c>
@@ -1817,9 +1523,6 @@
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100">
-        <v>99</v>
-      </c>
       <c r="B100" t="s">
         <v>5</v>
       </c>
@@ -1831,9 +1534,6 @@
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101">
-        <v>100</v>
-      </c>
       <c r="B101" t="s">
         <v>5</v>
       </c>
@@ -1845,9 +1545,6 @@
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102">
-        <v>101</v>
-      </c>
       <c r="B102" t="s">
         <v>5</v>
       </c>
@@ -1859,9 +1556,6 @@
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103">
-        <v>102</v>
-      </c>
       <c r="B103" t="s">
         <v>5</v>
       </c>
@@ -1873,9 +1567,6 @@
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104">
-        <v>103</v>
-      </c>
       <c r="B104" t="s">
         <v>5</v>
       </c>
@@ -1887,9 +1578,6 @@
       </c>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105">
-        <v>104</v>
-      </c>
       <c r="B105" t="s">
         <v>5</v>
       </c>
@@ -1901,9 +1589,6 @@
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106">
-        <v>105</v>
-      </c>
       <c r="B106" t="s">
         <v>5</v>
       </c>
@@ -1915,9 +1600,6 @@
       </c>
     </row>
     <row r="107" spans="1:5">
-      <c r="A107">
-        <v>106</v>
-      </c>
       <c r="B107" t="s">
         <v>5</v>
       </c>
@@ -1929,9 +1611,6 @@
       </c>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108">
-        <v>107</v>
-      </c>
       <c r="B108" t="s">
         <v>5</v>
       </c>
@@ -1943,9 +1622,6 @@
       </c>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109">
-        <v>108</v>
-      </c>
       <c r="B109" t="s">
         <v>5</v>
       </c>
@@ -1957,9 +1633,6 @@
       </c>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110">
-        <v>109</v>
-      </c>
       <c r="B110" t="s">
         <v>5</v>
       </c>
@@ -1971,9 +1644,6 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111">
-        <v>110</v>
-      </c>
       <c r="B111" t="s">
         <v>5</v>
       </c>
@@ -1985,9 +1655,6 @@
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112">
-        <v>111</v>
-      </c>
       <c r="B112" t="s">
         <v>5</v>
       </c>
@@ -1999,9 +1666,6 @@
       </c>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113">
-        <v>112</v>
-      </c>
       <c r="B113" t="s">
         <v>5</v>
       </c>
@@ -2013,9 +1677,6 @@
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114">
-        <v>113</v>
-      </c>
       <c r="B114" t="s">
         <v>5</v>
       </c>
@@ -2027,9 +1688,6 @@
       </c>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115">
-        <v>114</v>
-      </c>
       <c r="B115" t="s">
         <v>5</v>
       </c>
@@ -2041,9 +1699,6 @@
       </c>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116">
-        <v>115</v>
-      </c>
       <c r="B116" t="s">
         <v>5</v>
       </c>
@@ -2055,9 +1710,6 @@
       </c>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117">
-        <v>116</v>
-      </c>
       <c r="B117" t="s">
         <v>5</v>
       </c>
@@ -2069,9 +1721,6 @@
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118">
-        <v>117</v>
-      </c>
       <c r="B118" t="s">
         <v>5</v>
       </c>
@@ -2083,9 +1732,6 @@
       </c>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119">
-        <v>118</v>
-      </c>
       <c r="B119" t="s">
         <v>5</v>
       </c>
@@ -2097,9 +1743,6 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120">
-        <v>119</v>
-      </c>
       <c r="B120" t="s">
         <v>5</v>
       </c>
@@ -2111,9 +1754,6 @@
       </c>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121">
-        <v>120</v>
-      </c>
       <c r="B121" t="s">
         <v>5</v>
       </c>
@@ -2125,9 +1765,6 @@
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122">
-        <v>121</v>
-      </c>
       <c r="B122" t="s">
         <v>5</v>
       </c>
@@ -2139,9 +1776,6 @@
       </c>
     </row>
     <row r="123" spans="1:5">
-      <c r="A123">
-        <v>122</v>
-      </c>
       <c r="B123" t="s">
         <v>5</v>
       </c>
@@ -2153,9 +1787,6 @@
       </c>
     </row>
     <row r="124" spans="1:5">
-      <c r="A124">
-        <v>123</v>
-      </c>
       <c r="B124" t="s">
         <v>5</v>
       </c>
@@ -2167,9 +1798,6 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125">
-        <v>124</v>
-      </c>
       <c r="B125" t="s">
         <v>5</v>
       </c>
@@ -2181,9 +1809,6 @@
       </c>
     </row>
     <row r="126" spans="1:5">
-      <c r="A126">
-        <v>125</v>
-      </c>
       <c r="B126" t="s">
         <v>5</v>
       </c>
@@ -2195,9 +1820,6 @@
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127">
-        <v>126</v>
-      </c>
       <c r="B127" t="s">
         <v>5</v>
       </c>
@@ -2209,9 +1831,6 @@
       </c>
     </row>
     <row r="128" spans="1:5">
-      <c r="A128">
-        <v>127</v>
-      </c>
       <c r="B128" t="s">
         <v>5</v>
       </c>
@@ -2223,9 +1842,6 @@
       </c>
     </row>
     <row r="129" spans="1:5">
-      <c r="A129">
-        <v>128</v>
-      </c>
       <c r="B129" t="s">
         <v>5</v>
       </c>
@@ -2237,9 +1853,6 @@
       </c>
     </row>
     <row r="130" spans="1:5">
-      <c r="A130">
-        <v>129</v>
-      </c>
       <c r="B130" t="s">
         <v>5</v>
       </c>
@@ -2251,9 +1864,6 @@
       </c>
     </row>
     <row r="131" spans="1:5">
-      <c r="A131">
-        <v>130</v>
-      </c>
       <c r="B131" t="s">
         <v>5</v>
       </c>
@@ -2265,9 +1875,6 @@
       </c>
     </row>
     <row r="132" spans="1:5">
-      <c r="A132">
-        <v>131</v>
-      </c>
       <c r="B132" t="s">
         <v>5</v>
       </c>
@@ -2279,9 +1886,6 @@
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133">
-        <v>132</v>
-      </c>
       <c r="B133" t="s">
         <v>5</v>
       </c>
@@ -2293,9 +1897,6 @@
       </c>
     </row>
     <row r="134" spans="1:5">
-      <c r="A134">
-        <v>133</v>
-      </c>
       <c r="B134" t="s">
         <v>5</v>
       </c>
@@ -2307,9 +1908,6 @@
       </c>
     </row>
     <row r="135" spans="1:5">
-      <c r="A135">
-        <v>134</v>
-      </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
@@ -2321,9 +1919,6 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136">
-        <v>135</v>
-      </c>
       <c r="B136" t="s">
         <v>5</v>
       </c>
@@ -2335,9 +1930,6 @@
       </c>
     </row>
     <row r="137" spans="1:5">
-      <c r="A137">
-        <v>136</v>
-      </c>
       <c r="B137" t="s">
         <v>5</v>
       </c>
@@ -2349,9 +1941,6 @@
       </c>
     </row>
     <row r="138" spans="1:5">
-      <c r="A138">
-        <v>137</v>
-      </c>
       <c r="B138" t="s">
         <v>5</v>
       </c>
@@ -2363,9 +1952,6 @@
       </c>
     </row>
     <row r="139" spans="1:5">
-      <c r="A139">
-        <v>138</v>
-      </c>
       <c r="B139" t="s">
         <v>5</v>
       </c>
@@ -2377,9 +1963,6 @@
       </c>
     </row>
     <row r="140" spans="1:5">
-      <c r="A140">
-        <v>139</v>
-      </c>
       <c r="B140" t="s">
         <v>5</v>
       </c>
@@ -2391,9 +1974,6 @@
       </c>
     </row>
     <row r="141" spans="1:5">
-      <c r="A141">
-        <v>140</v>
-      </c>
       <c r="B141" t="s">
         <v>5</v>
       </c>
@@ -2405,9 +1985,6 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="A142">
-        <v>141</v>
-      </c>
       <c r="B142" t="s">
         <v>5</v>
       </c>
@@ -2419,9 +1996,6 @@
       </c>
     </row>
     <row r="143" spans="1:5">
-      <c r="A143">
-        <v>142</v>
-      </c>
       <c r="B143" t="s">
         <v>5</v>
       </c>
@@ -2433,9 +2007,6 @@
       </c>
     </row>
     <row r="144" spans="1:5">
-      <c r="A144">
-        <v>143</v>
-      </c>
       <c r="B144" t="s">
         <v>5</v>
       </c>
@@ -2447,9 +2018,6 @@
       </c>
     </row>
     <row r="145" spans="1:5">
-      <c r="A145">
-        <v>144</v>
-      </c>
       <c r="B145" t="s">
         <v>5</v>
       </c>
@@ -2461,9 +2029,6 @@
       </c>
     </row>
     <row r="146" spans="1:5">
-      <c r="A146">
-        <v>145</v>
-      </c>
       <c r="B146" t="s">
         <v>5</v>
       </c>
@@ -2475,9 +2040,6 @@
       </c>
     </row>
     <row r="147" spans="1:5">
-      <c r="A147">
-        <v>146</v>
-      </c>
       <c r="B147" t="s">
         <v>5</v>
       </c>
@@ -2489,9 +2051,6 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148">
-        <v>147</v>
-      </c>
       <c r="B148" t="s">
         <v>5</v>
       </c>
@@ -2503,9 +2062,6 @@
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149">
-        <v>148</v>
-      </c>
       <c r="B149" t="s">
         <v>5</v>
       </c>
@@ -2517,9 +2073,6 @@
       </c>
     </row>
     <row r="150" spans="1:5">
-      <c r="A150">
-        <v>149</v>
-      </c>
       <c r="B150" t="s">
         <v>5</v>
       </c>
@@ -2531,9 +2084,6 @@
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151">
-        <v>150</v>
-      </c>
       <c r="B151" t="s">
         <v>5</v>
       </c>
@@ -2545,9 +2095,6 @@
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152">
-        <v>151</v>
-      </c>
       <c r="B152" t="s">
         <v>5</v>
       </c>
@@ -2559,9 +2106,6 @@
       </c>
     </row>
     <row r="153" spans="1:5">
-      <c r="A153">
-        <v>152</v>
-      </c>
       <c r="B153" t="s">
         <v>5</v>
       </c>
@@ -2573,9 +2117,6 @@
       </c>
     </row>
     <row r="154" spans="1:5">
-      <c r="A154">
-        <v>153</v>
-      </c>
       <c r="B154" t="s">
         <v>5</v>
       </c>
@@ -2587,9 +2128,6 @@
       </c>
     </row>
     <row r="155" spans="1:5">
-      <c r="A155">
-        <v>154</v>
-      </c>
       <c r="B155" t="s">
         <v>5</v>
       </c>
@@ -2601,9 +2139,6 @@
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156">
-        <v>155</v>
-      </c>
       <c r="B156" t="s">
         <v>5</v>
       </c>
@@ -2615,9 +2150,6 @@
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157">
-        <v>156</v>
-      </c>
       <c r="B157" t="s">
         <v>5</v>
       </c>
@@ -2629,9 +2161,6 @@
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158">
-        <v>157</v>
-      </c>
       <c r="B158" t="s">
         <v>5</v>
       </c>
@@ -2643,9 +2172,6 @@
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159">
-        <v>158</v>
-      </c>
       <c r="B159" t="s">
         <v>5</v>
       </c>
@@ -2657,9 +2183,6 @@
       </c>
     </row>
     <row r="160" spans="1:5">
-      <c r="A160">
-        <v>159</v>
-      </c>
       <c r="B160" t="s">
         <v>5</v>
       </c>
@@ -2671,9 +2194,6 @@
       </c>
     </row>
     <row r="161" spans="1:5">
-      <c r="A161">
-        <v>160</v>
-      </c>
       <c r="B161" t="s">
         <v>5</v>
       </c>
@@ -2685,9 +2205,6 @@
       </c>
     </row>
     <row r="162" spans="1:5">
-      <c r="A162">
-        <v>161</v>
-      </c>
       <c r="B162" t="s">
         <v>5</v>
       </c>
@@ -2699,9 +2216,6 @@
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163">
-        <v>162</v>
-      </c>
       <c r="B163" t="s">
         <v>5</v>
       </c>
@@ -2713,9 +2227,6 @@
       </c>
     </row>
     <row r="164" spans="1:5">
-      <c r="A164">
-        <v>163</v>
-      </c>
       <c r="B164" t="s">
         <v>5</v>
       </c>
@@ -2727,9 +2238,6 @@
       </c>
     </row>
     <row r="165" spans="1:5">
-      <c r="A165">
-        <v>164</v>
-      </c>
       <c r="B165" t="s">
         <v>5</v>
       </c>
@@ -2741,9 +2249,6 @@
       </c>
     </row>
     <row r="166" spans="1:5">
-      <c r="A166">
-        <v>165</v>
-      </c>
       <c r="B166" t="s">
         <v>5</v>
       </c>
@@ -2755,9 +2260,6 @@
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167">
-        <v>166</v>
-      </c>
       <c r="B167" t="s">
         <v>5</v>
       </c>
@@ -2769,9 +2271,6 @@
       </c>
     </row>
     <row r="168" spans="1:5">
-      <c r="A168">
-        <v>167</v>
-      </c>
       <c r="B168" t="s">
         <v>5</v>
       </c>
@@ -2783,9 +2282,6 @@
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169">
-        <v>168</v>
-      </c>
       <c r="B169" t="s">
         <v>5</v>
       </c>
@@ -2797,9 +2293,6 @@
       </c>
     </row>
     <row r="170" spans="1:5">
-      <c r="A170">
-        <v>169</v>
-      </c>
       <c r="B170" t="s">
         <v>5</v>
       </c>
@@ -2811,9 +2304,6 @@
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171">
-        <v>170</v>
-      </c>
       <c r="B171" t="s">
         <v>5</v>
       </c>
@@ -2825,9 +2315,6 @@
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172">
-        <v>171</v>
-      </c>
       <c r="B172" t="s">
         <v>5</v>
       </c>
@@ -2839,9 +2326,6 @@
       </c>
     </row>
     <row r="173" spans="1:5">
-      <c r="A173">
-        <v>172</v>
-      </c>
       <c r="B173" t="s">
         <v>5</v>
       </c>
@@ -2853,9 +2337,6 @@
       </c>
     </row>
     <row r="174" spans="1:5">
-      <c r="A174">
-        <v>173</v>
-      </c>
       <c r="B174" t="s">
         <v>5</v>
       </c>
@@ -2867,9 +2348,6 @@
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175">
-        <v>174</v>
-      </c>
       <c r="B175" t="s">
         <v>5</v>
       </c>
@@ -2881,9 +2359,6 @@
       </c>
     </row>
     <row r="176" spans="1:5">
-      <c r="A176">
-        <v>175</v>
-      </c>
       <c r="B176" t="s">
         <v>5</v>
       </c>
@@ -2895,9 +2370,6 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177">
-        <v>176</v>
-      </c>
       <c r="B177" t="s">
         <v>5</v>
       </c>
@@ -2909,9 +2381,6 @@
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178">
-        <v>177</v>
-      </c>
       <c r="B178" t="s">
         <v>5</v>
       </c>
@@ -2923,9 +2392,6 @@
       </c>
     </row>
     <row r="179" spans="1:5">
-      <c r="A179">
-        <v>178</v>
-      </c>
       <c r="B179" t="s">
         <v>5</v>
       </c>
@@ -2937,9 +2403,6 @@
       </c>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180">
-        <v>179</v>
-      </c>
       <c r="B180" t="s">
         <v>5</v>
       </c>
@@ -2951,9 +2414,6 @@
       </c>
     </row>
     <row r="181" spans="1:5">
-      <c r="A181">
-        <v>180</v>
-      </c>
       <c r="B181" t="s">
         <v>5</v>
       </c>
@@ -2965,9 +2425,6 @@
       </c>
     </row>
     <row r="182" spans="1:5">
-      <c r="A182">
-        <v>181</v>
-      </c>
       <c r="B182" t="s">
         <v>5</v>
       </c>
@@ -2979,9 +2436,6 @@
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183">
-        <v>182</v>
-      </c>
       <c r="B183" t="s">
         <v>5</v>
       </c>
@@ -2993,9 +2447,6 @@
       </c>
     </row>
     <row r="184" spans="1:5">
-      <c r="A184">
-        <v>183</v>
-      </c>
       <c r="B184" t="s">
         <v>5</v>
       </c>
@@ -3007,9 +2458,6 @@
       </c>
     </row>
     <row r="185" spans="1:5">
-      <c r="A185">
-        <v>184</v>
-      </c>
       <c r="B185" t="s">
         <v>5</v>
       </c>
@@ -3021,9 +2469,6 @@
       </c>
     </row>
     <row r="186" spans="1:5">
-      <c r="A186">
-        <v>185</v>
-      </c>
       <c r="B186" t="s">
         <v>5</v>
       </c>
@@ -3035,9 +2480,6 @@
       </c>
     </row>
     <row r="187" spans="1:5">
-      <c r="A187">
-        <v>186</v>
-      </c>
       <c r="B187" t="s">
         <v>5</v>
       </c>
@@ -3049,9 +2491,6 @@
       </c>
     </row>
     <row r="188" spans="1:5">
-      <c r="A188">
-        <v>187</v>
-      </c>
       <c r="B188" t="s">
         <v>5</v>
       </c>
@@ -3063,9 +2502,6 @@
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189">
-        <v>188</v>
-      </c>
       <c r="B189" t="s">
         <v>5</v>
       </c>
@@ -3077,9 +2513,6 @@
       </c>
     </row>
     <row r="190" spans="1:5">
-      <c r="A190">
-        <v>189</v>
-      </c>
       <c r="B190" t="s">
         <v>5</v>
       </c>
@@ -3091,9 +2524,6 @@
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191">
-        <v>190</v>
-      </c>
       <c r="B191" t="s">
         <v>5</v>
       </c>
@@ -3105,9 +2535,6 @@
       </c>
     </row>
     <row r="192" spans="1:5">
-      <c r="A192">
-        <v>191</v>
-      </c>
       <c r="B192" t="s">
         <v>5</v>
       </c>
@@ -3119,9 +2546,6 @@
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193">
-        <v>192</v>
-      </c>
       <c r="B193" t="s">
         <v>5</v>
       </c>
@@ -3133,9 +2557,6 @@
       </c>
     </row>
     <row r="194" spans="1:5">
-      <c r="A194">
-        <v>193</v>
-      </c>
       <c r="B194" t="s">
         <v>5</v>
       </c>
@@ -3147,9 +2568,6 @@
       </c>
     </row>
     <row r="195" spans="1:5">
-      <c r="A195">
-        <v>194</v>
-      </c>
       <c r="B195" t="s">
         <v>5</v>
       </c>
@@ -3161,9 +2579,6 @@
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196">
-        <v>195</v>
-      </c>
       <c r="B196" t="s">
         <v>5</v>
       </c>
@@ -3175,9 +2590,6 @@
       </c>
     </row>
     <row r="197" spans="1:5">
-      <c r="A197">
-        <v>196</v>
-      </c>
       <c r="B197" t="s">
         <v>5</v>
       </c>
@@ -3189,9 +2601,6 @@
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198">
-        <v>197</v>
-      </c>
       <c r="B198" t="s">
         <v>5</v>
       </c>
@@ -3203,9 +2612,6 @@
       </c>
     </row>
     <row r="199" spans="1:5">
-      <c r="A199">
-        <v>198</v>
-      </c>
       <c r="B199" t="s">
         <v>5</v>
       </c>
@@ -3217,9 +2623,6 @@
       </c>
     </row>
     <row r="200" spans="1:5">
-      <c r="A200">
-        <v>199</v>
-      </c>
       <c r="B200" t="s">
         <v>5</v>
       </c>
@@ -3231,9 +2634,6 @@
       </c>
     </row>
     <row r="201" spans="1:5">
-      <c r="A201">
-        <v>200</v>
-      </c>
       <c r="B201" t="s">
         <v>5</v>
       </c>
@@ -3245,9 +2645,6 @@
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="A202">
-        <v>201</v>
-      </c>
       <c r="B202" t="s">
         <v>5</v>
       </c>
@@ -3259,9 +2656,6 @@
       </c>
     </row>
     <row r="203" spans="1:5">
-      <c r="A203">
-        <v>202</v>
-      </c>
       <c r="B203" t="s">
         <v>5</v>
       </c>
@@ -3273,9 +2667,6 @@
       </c>
     </row>
     <row r="204" spans="1:5">
-      <c r="A204">
-        <v>203</v>
-      </c>
       <c r="B204" t="s">
         <v>5</v>
       </c>
@@ -3287,9 +2678,6 @@
       </c>
     </row>
     <row r="205" spans="1:5">
-      <c r="A205">
-        <v>204</v>
-      </c>
       <c r="B205" t="s">
         <v>5</v>
       </c>
@@ -3301,9 +2689,6 @@
       </c>
     </row>
     <row r="206" spans="1:5">
-      <c r="A206">
-        <v>205</v>
-      </c>
       <c r="B206" t="s">
         <v>5</v>
       </c>
@@ -3315,9 +2700,6 @@
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207">
-        <v>206</v>
-      </c>
       <c r="B207" t="s">
         <v>5</v>
       </c>
@@ -3329,9 +2711,6 @@
       </c>
     </row>
     <row r="208" spans="1:5">
-      <c r="A208">
-        <v>207</v>
-      </c>
       <c r="B208" t="s">
         <v>5</v>
       </c>
@@ -3343,9 +2722,6 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209">
-        <v>208</v>
-      </c>
       <c r="B209" t="s">
         <v>5</v>
       </c>
@@ -3357,9 +2733,6 @@
       </c>
     </row>
     <row r="210" spans="1:5">
-      <c r="A210">
-        <v>209</v>
-      </c>
       <c r="B210" t="s">
         <v>5</v>
       </c>
@@ -3371,9 +2744,6 @@
       </c>
     </row>
     <row r="211" spans="1:5">
-      <c r="A211">
-        <v>210</v>
-      </c>
       <c r="B211" t="s">
         <v>5</v>
       </c>
@@ -3385,9 +2755,6 @@
       </c>
     </row>
     <row r="212" spans="1:5">
-      <c r="A212">
-        <v>211</v>
-      </c>
       <c r="B212" t="s">
         <v>5</v>
       </c>
@@ -3399,9 +2766,6 @@
       </c>
     </row>
     <row r="213" spans="1:5">
-      <c r="A213">
-        <v>212</v>
-      </c>
       <c r="B213" t="s">
         <v>5</v>
       </c>
@@ -3413,9 +2777,6 @@
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214">
-        <v>213</v>
-      </c>
       <c r="B214" t="s">
         <v>5</v>
       </c>
@@ -3427,9 +2788,6 @@
       </c>
     </row>
     <row r="215" spans="1:5">
-      <c r="A215">
-        <v>214</v>
-      </c>
       <c r="B215" t="s">
         <v>5</v>
       </c>
@@ -3441,9 +2799,6 @@
       </c>
     </row>
     <row r="216" spans="1:5">
-      <c r="A216">
-        <v>215</v>
-      </c>
       <c r="B216" t="s">
         <v>5</v>
       </c>
@@ -3455,9 +2810,6 @@
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217">
-        <v>216</v>
-      </c>
       <c r="B217" t="s">
         <v>5</v>
       </c>
@@ -3469,9 +2821,6 @@
       </c>
     </row>
     <row r="218" spans="1:5">
-      <c r="A218">
-        <v>217</v>
-      </c>
       <c r="B218" t="s">
         <v>5</v>
       </c>
@@ -3483,9 +2832,6 @@
       </c>
     </row>
     <row r="219" spans="1:5">
-      <c r="A219">
-        <v>218</v>
-      </c>
       <c r="B219" t="s">
         <v>5</v>
       </c>
@@ -3497,9 +2843,6 @@
       </c>
     </row>
     <row r="220" spans="1:5">
-      <c r="A220">
-        <v>219</v>
-      </c>
       <c r="B220" t="s">
         <v>5</v>
       </c>
@@ -3511,9 +2854,6 @@
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="A221">
-        <v>220</v>
-      </c>
       <c r="B221" t="s">
         <v>5</v>
       </c>
@@ -3525,9 +2865,6 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="A222">
-        <v>221</v>
-      </c>
       <c r="B222" t="s">
         <v>5</v>
       </c>
@@ -3539,9 +2876,6 @@
       </c>
     </row>
     <row r="223" spans="1:5">
-      <c r="A223">
-        <v>222</v>
-      </c>
       <c r="B223" t="s">
         <v>5</v>
       </c>
@@ -3553,9 +2887,6 @@
       </c>
     </row>
     <row r="224" spans="1:5">
-      <c r="A224">
-        <v>223</v>
-      </c>
       <c r="B224" t="s">
         <v>5</v>
       </c>
@@ -3567,9 +2898,6 @@
       </c>
     </row>
     <row r="225" spans="1:5">
-      <c r="A225">
-        <v>224</v>
-      </c>
       <c r="B225" t="s">
         <v>5</v>
       </c>
@@ -3581,9 +2909,6 @@
       </c>
     </row>
     <row r="226" spans="1:5">
-      <c r="A226">
-        <v>225</v>
-      </c>
       <c r="B226" t="s">
         <v>5</v>
       </c>
@@ -3595,9 +2920,6 @@
       </c>
     </row>
     <row r="227" spans="1:5">
-      <c r="A227">
-        <v>226</v>
-      </c>
       <c r="B227" t="s">
         <v>5</v>
       </c>
@@ -3609,9 +2931,6 @@
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228">
-        <v>227</v>
-      </c>
       <c r="B228" t="s">
         <v>5</v>
       </c>
@@ -3623,9 +2942,6 @@
       </c>
     </row>
     <row r="229" spans="1:5">
-      <c r="A229">
-        <v>228</v>
-      </c>
       <c r="B229" t="s">
         <v>5</v>
       </c>
@@ -3637,9 +2953,6 @@
       </c>
     </row>
     <row r="230" spans="1:5">
-      <c r="A230">
-        <v>229</v>
-      </c>
       <c r="B230" t="s">
         <v>5</v>
       </c>
@@ -3651,9 +2964,6 @@
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231">
-        <v>230</v>
-      </c>
       <c r="B231" t="s">
         <v>5</v>
       </c>
@@ -3665,9 +2975,6 @@
       </c>
     </row>
     <row r="232" spans="1:5">
-      <c r="A232">
-        <v>231</v>
-      </c>
       <c r="B232" t="s">
         <v>5</v>
       </c>
@@ -3679,9 +2986,6 @@
       </c>
     </row>
     <row r="233" spans="1:5">
-      <c r="A233">
-        <v>232</v>
-      </c>
       <c r="B233" t="s">
         <v>5</v>
       </c>
@@ -3693,9 +2997,6 @@
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234">
-        <v>233</v>
-      </c>
       <c r="B234" t="s">
         <v>5</v>
       </c>
@@ -3707,9 +3008,6 @@
       </c>
     </row>
     <row r="235" spans="1:5">
-      <c r="A235">
-        <v>234</v>
-      </c>
       <c r="B235" t="s">
         <v>5</v>
       </c>
@@ -3721,9 +3019,6 @@
       </c>
     </row>
     <row r="236" spans="1:5">
-      <c r="A236">
-        <v>235</v>
-      </c>
       <c r="B236" t="s">
         <v>5</v>
       </c>
@@ -3735,9 +3030,6 @@
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237">
-        <v>236</v>
-      </c>
       <c r="B237" t="s">
         <v>5</v>
       </c>
@@ -3749,9 +3041,6 @@
       </c>
     </row>
     <row r="238" spans="1:5">
-      <c r="A238">
-        <v>237</v>
-      </c>
       <c r="B238" t="s">
         <v>5</v>
       </c>
@@ -3763,9 +3052,6 @@
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239">
-        <v>238</v>
-      </c>
       <c r="B239" t="s">
         <v>5</v>
       </c>
@@ -3777,9 +3063,6 @@
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240">
-        <v>239</v>
-      </c>
       <c r="B240" t="s">
         <v>5</v>
       </c>
@@ -3791,9 +3074,6 @@
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241">
-        <v>240</v>
-      </c>
       <c r="B241" t="s">
         <v>5</v>
       </c>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>9-13</t>
+    <t>6-52</t>
   </si>
   <si>
     <t>C</t>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>6-52</t>
+    <t>10-12</t>
   </si>
   <si>
     <t>C</t>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>10-12</t>
+    <t>6-52</t>
   </si>
   <si>
     <t>C</t>

--- a/Extraction/etape1_pageform.xlsx
+++ b/Extraction/etape1_pageform.xlsx
@@ -32,7 +32,7 @@
     <t>INN</t>
   </si>
   <si>
-    <t>6-52</t>
+    <t>9-13</t>
   </si>
   <si>
     <t>C</t>
